--- a/WorkflowSynthesis/flowmap/evaluation/ExpertWorkflows/Evaluation.xlsx
+++ b/WorkflowSynthesis/flowmap/evaluation/ExpertWorkflows/Evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schei008\.matplotlib\Documents\github\QuAnGIS\WorkflowSynthesis\flowmap\evaluation\ExpertWorkflows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Sjef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663FEF67-3898-4B66-8709-FF24BCD7E1A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E643ABD6-2378-4737-AD8C-74C8B61B12C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="1512" windowWidth="20112" windowHeight="10848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30270" yWindow="0" windowWidth="25740" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eval" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,12 @@
     <sheet name="SemanRedun" sheetId="2" r:id="rId7"/>
     <sheet name="Redun" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="226">
   <si>
     <t>Workflow task</t>
   </si>
@@ -663,9 +661,6 @@
     <t>Function FlowDoubly for attraction estimation is missing</t>
   </si>
   <si>
-    <t>11.0/11.1/11.2/11.3</t>
-  </si>
-  <si>
     <t>2nd Flow Summation is Redundant</t>
   </si>
   <si>
@@ -709,6 +704,15 @@
   </si>
   <si>
     <t>Bench 12.0/12.4</t>
+  </si>
+  <si>
+    <t>solution11b</t>
+  </si>
+  <si>
+    <t>Catchment Area does not produce proper attractions</t>
+  </si>
+  <si>
+    <t>11b.0</t>
   </si>
 </sst>
 </file>
@@ -2082,15 +2086,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>427160</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2113,8 +2117,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17964151" y="952501"/>
-          <a:ext cx="3903784" cy="4038600"/>
+          <a:off x="17964151" y="952502"/>
+          <a:ext cx="3342154" cy="3457574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>49777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3219450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>151439</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF90A53-6F2C-47CD-A566-DA9369F383A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21459825" y="1002277"/>
+          <a:ext cx="3200400" cy="3149662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2765,27 +2813,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O112" sqref="O112"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101:G102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="128.44140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="130.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.42578125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="130.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2817,7 +2864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2849,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2881,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2913,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2945,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2977,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3009,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3041,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3073,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3105,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3137,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3169,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3201,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3233,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3265,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3297,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3329,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3361,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3393,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -3425,7 +3472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -3457,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -3489,7 +3536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3521,7 +3568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3553,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3585,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3617,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -3649,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -3681,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -3713,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3745,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3777,7 +3824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3809,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3841,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3873,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3905,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3937,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -3969,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4001,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -4033,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -4065,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -4097,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4129,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -4161,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -4193,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -4225,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -4257,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4289,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -4321,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -4353,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -4385,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -4417,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -4449,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -4481,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -4513,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -4545,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -4577,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -4609,7 +4656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -4641,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -4673,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -4705,7 +4752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -4737,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -4769,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -4801,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -4833,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -4865,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -4897,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -4929,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -4961,7 +5008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -4993,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -5025,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -5057,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -5089,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -5121,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -5153,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -5185,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>98</v>
       </c>
@@ -5217,7 +5264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -5249,7 +5296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -5281,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -5313,7 +5360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -5345,7 +5392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -5377,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -5409,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -5441,7 +5488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>112</v>
       </c>
@@ -5473,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>112</v>
       </c>
@@ -5505,7 +5552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -5537,7 +5584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>112</v>
       </c>
@@ -5569,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>113</v>
       </c>
@@ -5601,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -5633,7 +5680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -5665,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>113</v>
       </c>
@@ -5697,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -5729,7 +5776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -5761,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -5793,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>118</v>
       </c>
@@ -5825,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>118</v>
       </c>
@@ -5857,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>118</v>
       </c>
@@ -5889,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>122</v>
       </c>
@@ -5909,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5918,10 +5965,10 @@
         <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>122</v>
       </c>
@@ -5941,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5950,10 +5997,10 @@
         <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>122</v>
       </c>
@@ -5973,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5982,10 +6029,10 @@
         <v>0</v>
       </c>
       <c r="J100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -6005,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -6014,10 +6061,10 @@
         <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>122</v>
       </c>
@@ -6037,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -6049,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>129</v>
       </c>
@@ -6081,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>129</v>
       </c>
@@ -6113,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>129</v>
       </c>
@@ -6145,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>129</v>
       </c>
@@ -6177,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>129</v>
       </c>
@@ -6209,27 +6256,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="B108" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -6238,24 +6285,24 @@
         <v>0</v>
       </c>
       <c r="J108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="B109" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E109" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -6264,62 +6311,62 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="B110" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E110" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="B111" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C111">
         <v>3</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -6328,97 +6375,97 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C112">
         <v>4</v>
       </c>
       <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>128</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>136</v>
+      </c>
+      <c r="B113" t="s">
+        <v>137</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113" t="s">
+        <v>138</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>136</v>
+      </c>
+      <c r="B114" t="s">
+        <v>137</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
         <v>4</v>
       </c>
-      <c r="E112" t="s">
-        <v>142</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>143</v>
-      </c>
-      <c r="B113" t="s">
-        <v>144</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>1</v>
-      </c>
-      <c r="E113" t="s">
-        <v>49</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>143</v>
-      </c>
-      <c r="B114" t="s">
-        <v>145</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
       <c r="E114" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -6433,30 +6480,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C115">
         <v>2</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F115">
         <v>1</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -6465,27 +6512,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B116" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C116">
         <v>3</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E116" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -6497,35 +6544,195 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B117" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C117">
         <v>4</v>
       </c>
       <c r="D117">
+        <v>4</v>
+      </c>
+      <c r="E117" t="s">
+        <v>142</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" t="s">
+        <v>144</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>49</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
         <v>2</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E119" t="s">
+        <v>146</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>143</v>
+      </c>
+      <c r="B120" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>50</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>143</v>
+      </c>
+      <c r="B121" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>149</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122">
+        <v>4</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s">
         <v>150</v>
       </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117">
-        <v>0</v>
-      </c>
-      <c r="J117">
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
         <v>0</v>
       </c>
     </row>
@@ -6543,15 +6750,15 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="94.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -6562,10 +6769,10 @@
         <v>7.1</v>
       </c>
       <c r="E1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -6579,10 +6786,10 @@
         <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -6596,10 +6803,10 @@
         <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -6613,10 +6820,10 @@
         <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -6636,7 +6843,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
   </sheetData>
@@ -6654,21 +6861,21 @@
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D1">
         <v>4.3</v>
@@ -6689,13 +6896,13 @@
         <v>194</v>
       </c>
       <c r="J1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -6724,13 +6931,13 @@
         <v>193</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -6770,7 +6977,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -6802,10 +7009,10 @@
         <v>195</v>
       </c>
       <c r="K4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -6861,19 +7068,19 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -6893,10 +7100,10 @@
         <v>191</v>
       </c>
       <c r="H1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -6919,10 +7126,10 @@
         <v>190</v>
       </c>
       <c r="H2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -6954,7 +7161,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -6986,7 +7193,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -7034,17 +7241,17 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="73" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -7064,13 +7271,13 @@
         <v>182</v>
       </c>
       <c r="H1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" t="s">
         <v>210</v>
       </c>
-      <c r="I1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -7099,7 +7306,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -7128,7 +7335,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -7164,7 +7371,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -7209,22 +7416,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D08B2F-B4A2-4BC6-B8C0-E84723D5D0EC}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="97" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -7238,10 +7445,10 @@
         <v>206</v>
       </c>
       <c r="F1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -7261,7 +7468,7 @@
         <v>-</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:K2" si="0">"-"</f>
+        <f t="shared" ref="F2:J2" si="0">"-"</f>
         <v>-</v>
       </c>
       <c r="G2" t="str">
@@ -7280,12 +7487,8 @@
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="K2" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -7302,10 +7505,10 @@
         <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -7325,7 +7528,7 @@
         <v>-</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:K5" si="2">"-"</f>
+        <f t="shared" ref="F4:J5" si="2">"-"</f>
         <v>-</v>
       </c>
       <c r="G4" t="str">
@@ -7344,12 +7547,8 @@
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -7385,10 +7584,6 @@
         <v>-</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="K5" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
@@ -7408,14 +7603,14 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -7426,7 +7621,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -7438,7 +7633,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -7452,7 +7647,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -7463,10 +7658,10 @@
         <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -7478,7 +7673,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>165</v>
       </c>
@@ -7498,16 +7693,16 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="47.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -7518,7 +7713,7 @@
         <v>4.2</v>
       </c>
       <c r="E1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F1" t="s">
         <v>199</v>
@@ -7527,7 +7722,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -7555,7 +7750,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -7583,7 +7778,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -7606,7 +7801,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -7634,7 +7829,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>165</v>
       </c>

--- a/WorkflowSynthesis/flowmap/evaluation/ExpertWorkflows/Evaluation.xlsx
+++ b/WorkflowSynthesis/flowmap/evaluation/ExpertWorkflows/Evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Sjef\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schei008\.matplotlib\Documents\github\QuAnGIS\WorkflowSynthesis\flowmap\evaluation\ExpertWorkflows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E643ABD6-2378-4737-AD8C-74C8B61B12C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F85DDE-E523-4F4A-AEE7-6E1407CCB394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30270" yWindow="0" windowWidth="25740" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="564" windowWidth="20112" windowHeight="10848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eval" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,14 @@
     <sheet name="SemanRedun" sheetId="2" r:id="rId7"/>
     <sheet name="Redun" sheetId="3" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="229">
   <si>
     <t>Workflow task</t>
   </si>
@@ -713,6 +715,15 @@
   </si>
   <si>
     <t>11b.0</t>
+  </si>
+  <si>
+    <t>syntax_prev</t>
+  </si>
+  <si>
+    <t>Repetition of measure size</t>
+  </si>
+  <si>
+    <t>Repetition of functional clustering</t>
   </si>
 </sst>
 </file>
@@ -2813,26 +2824,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101:G102"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="128.42578125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="130.7109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.44140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="130.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2863,8 +2875,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2895,8 +2910,11 @@
       <c r="J2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2927,8 +2945,11 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2959,8 +2980,11 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2991,8 +3015,11 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3023,8 +3050,14 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3056,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -3088,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3120,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3152,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3184,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3215,8 +3248,11 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3247,8 +3283,11 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3279,8 +3318,14 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3311,8 +3356,14 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3343,8 +3394,11 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3376,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3408,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3440,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -3472,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -3504,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -3535,8 +3589,11 @@
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3567,8 +3624,14 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -3599,8 +3662,11 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3631,8 +3697,14 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3663,8 +3735,11 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -3696,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -3728,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -3760,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -3792,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -3824,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -3855,8 +3930,11 @@
       <c r="J32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3887,8 +3965,14 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -3919,8 +4003,11 @@
       <c r="J34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3951,8 +4038,14 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -3983,8 +4076,11 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -4016,7 +4112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4048,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -4080,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -4112,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -4144,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -4175,8 +4271,11 @@
       <c r="J42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -4208,7 +4307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -4240,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -4272,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>56</v>
       </c>
@@ -4304,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -4336,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -4367,8 +4466,11 @@
       <c r="J48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -4399,8 +4501,14 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -4431,8 +4539,14 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -4463,8 +4577,14 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -4495,8 +4615,14 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -4528,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -4560,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -4592,7 +4718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -4624,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -4656,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -4687,8 +4813,11 @@
       <c r="J58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -4719,8 +4848,11 @@
       <c r="J59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -4751,8 +4883,11 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -4783,8 +4918,11 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -4815,8 +4953,11 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -4848,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -4880,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -4912,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -4944,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -4976,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>91</v>
       </c>
@@ -5007,8 +5148,11 @@
       <c r="J68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -5039,8 +5183,11 @@
       <c r="J69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>91</v>
       </c>
@@ -5071,8 +5218,11 @@
       <c r="J70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>91</v>
       </c>
@@ -5103,8 +5253,11 @@
       <c r="J71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -5135,8 +5288,11 @@
       <c r="J72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -5168,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -5200,7 +5356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>98</v>
       </c>
@@ -5232,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>98</v>
       </c>
@@ -5264,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -5296,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>106</v>
       </c>
@@ -5327,8 +5483,11 @@
       <c r="J78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -5359,8 +5518,11 @@
       <c r="J79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -5391,8 +5553,11 @@
       <c r="J80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -5423,8 +5588,11 @@
       <c r="J81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -5455,8 +5623,11 @@
       <c r="J82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -5488,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>112</v>
       </c>
@@ -5520,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>112</v>
       </c>
@@ -5552,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -5584,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>112</v>
       </c>
@@ -5616,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>113</v>
       </c>
@@ -5647,8 +5818,11 @@
       <c r="J88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -5679,8 +5853,11 @@
       <c r="J89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>113</v>
       </c>
@@ -5711,8 +5888,11 @@
       <c r="J90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>113</v>
       </c>
@@ -5743,8 +5923,11 @@
       <c r="J91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>113</v>
       </c>
@@ -5775,8 +5958,11 @@
       <c r="J92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -5808,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -5840,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>118</v>
       </c>
@@ -5872,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>118</v>
       </c>
@@ -5904,7 +6090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>118</v>
       </c>
@@ -5936,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>122</v>
       </c>
@@ -5967,8 +6153,11 @@
       <c r="J98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>122</v>
       </c>
@@ -5999,8 +6188,11 @@
       <c r="J99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>122</v>
       </c>
@@ -6031,8 +6223,11 @@
       <c r="J100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -6063,8 +6258,11 @@
       <c r="J101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>122</v>
       </c>
@@ -6095,8 +6293,11 @@
       <c r="J102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>129</v>
       </c>
@@ -6128,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>129</v>
       </c>
@@ -6160,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>129</v>
       </c>
@@ -6192,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>129</v>
       </c>
@@ -6224,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>129</v>
       </c>
@@ -6256,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>223</v>
       </c>
@@ -6287,8 +6488,11 @@
       <c r="J108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>223</v>
       </c>
@@ -6319,8 +6523,11 @@
       <c r="J109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>223</v>
       </c>
@@ -6351,8 +6558,11 @@
       <c r="J110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>223</v>
       </c>
@@ -6383,8 +6593,11 @@
       <c r="J111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>223</v>
       </c>
@@ -6415,8 +6628,11 @@
       <c r="J112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>136</v>
       </c>
@@ -6447,8 +6663,11 @@
       <c r="J113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -6479,8 +6698,11 @@
       <c r="J114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>136</v>
       </c>
@@ -6511,8 +6733,14 @@
       <c r="J115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>136</v>
       </c>
@@ -6543,8 +6771,11 @@
       <c r="J116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -6575,8 +6806,11 @@
       <c r="J117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>143</v>
       </c>
@@ -6608,7 +6842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>143</v>
       </c>
@@ -6640,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>143</v>
       </c>
@@ -6672,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>143</v>
       </c>
@@ -6704,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>143</v>
       </c>
@@ -6746,19 +6980,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C721EB-DDEB-4ECE-A9A4-EF24C625D1E0}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="94.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -6772,7 +7006,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -6789,7 +7023,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -6806,7 +7040,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -6823,7 +7057,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -6843,7 +7077,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
   </sheetData>
@@ -6857,20 +7091,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC21868-BF34-4E8E-BABE-3AD9951516FC}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -6902,7 +7136,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -6937,7 +7171,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -6977,7 +7211,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -7012,7 +7246,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -7064,23 +7298,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D263112E-E88E-48D7-8E34-C37ED5EF43B7}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
     <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -7103,7 +7337,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -7129,7 +7363,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -7161,7 +7395,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -7193,7 +7427,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -7237,21 +7471,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861E8F9F-ACD2-4796-9D5D-B22FEA0563D2}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="73" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -7277,7 +7511,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -7306,7 +7540,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -7335,7 +7569,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -7371,7 +7605,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -7418,20 +7652,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D08B2F-B4A2-4BC6-B8C0-E84723D5D0EC}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="97" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -7448,7 +7682,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -7488,7 +7722,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -7508,7 +7742,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -7548,7 +7782,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -7603,14 +7837,14 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -7621,7 +7855,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -7633,7 +7867,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -7647,7 +7881,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -7661,7 +7895,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -7673,7 +7907,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>165</v>
       </c>
@@ -7693,16 +7927,16 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="47.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
@@ -7722,7 +7956,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>152</v>
       </c>
@@ -7750,7 +7984,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>154</v>
       </c>
@@ -7778,7 +8012,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>155</v>
       </c>
@@ -7801,7 +8035,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -7829,7 +8063,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>165</v>
       </c>
